--- a/Manual-Doc/ScopeX_TestCase.xlsx
+++ b/Manual-Doc/ScopeX_TestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationShubham\ScopeXTest\Manual-Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50D5D4E-9844-4702-9BD4-A2763CDFC9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3129BB-BC06-4EA7-A619-E7DEDE6B830C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{253E7BC5-F56F-49BB-99C0-24F6C2071FEE}"/>
   </bookViews>
@@ -391,16 +391,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -464,29 +456,26 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -826,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04829FE-D858-4180-A3A9-B9716FCC0120}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,413 +829,413 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="240" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="1" t="s">
         <v>112</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1266,130 +1255,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>1234</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>123456789012345</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>12345678901234</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>99</v>
       </c>
     </row>
